--- a/document/数据库/waimaiSystem@数据库设计@V1.0.0.xlsx
+++ b/document/数据库/waimaiSystem@数据库设计@V1.0.0.xlsx
@@ -5,21 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\数据库设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-108" windowWidth="28800" windowHeight="12588" tabRatio="907"/>
+    <workbookView xWindow="0" yWindow="-108" windowWidth="28800" windowHeight="12588" tabRatio="907" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="平台管理员" sheetId="4" r:id="rId1"/>
+    <sheet name="使用端" sheetId="4" r:id="rId1"/>
+    <sheet name="商品相关信息" sheetId="5" r:id="rId2"/>
+    <sheet name="订单相关信息" sheetId="6" r:id="rId3"/>
+    <sheet name="地址信息" sheetId="7" r:id="rId4"/>
+    <sheet name="接口监控" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="303">
   <si>
     <t>字段名</t>
   </si>
@@ -48,93 +52,1055 @@
     <t>Y</t>
   </si>
   <si>
-    <t>账号状态</t>
-  </si>
-  <si>
-    <t>添加时间</t>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户的唯一标识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户姓名 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手机号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户身份证号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(18)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户头像路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>datetime</t>
-  </si>
-  <si>
-    <t>管理员Id</t>
-  </si>
-  <si>
-    <t>平台管理员</t>
-  </si>
-  <si>
-    <t>管理员姓名</t>
-  </si>
-  <si>
-    <t>角色Id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工表(存储商家内部的员工信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>员工姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工用户名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工手机号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工身份证号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(18)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+  </si>
+  <si>
+    <t>员工账号状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工账号创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">员工账号最后修改时间 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>员工账号创建人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工账号最后修改人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品表(存储菜品的信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表(存储C端用户的信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品名称</t>
+  </si>
+  <si>
+    <t>菜品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖状态</t>
+  </si>
+  <si>
+    <t>1：起售， 0：停售</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">菜品最后修改时间 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品创建人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品最后修改人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish_flavor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish_id</t>
+  </si>
+  <si>
+    <t>dish_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品id</t>
+  </si>
+  <si>
+    <t>菜品id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>口味名称</t>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品口味表(存储菜品的口味信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>口味数据list</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmeal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐表(存储套餐的信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品分类id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品分类id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：启用， 0：禁用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmeal_dish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐菜品关系表(存储套餐和菜品的关联关系)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmeal_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐id</t>
+  </si>
+  <si>
+    <t>冗余字段</t>
+  </si>
+  <si>
+    <t>菜品单价</t>
+  </si>
+  <si>
+    <t>copies</t>
   </si>
   <si>
     <t>int(11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品份数</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类表(存储商品的分类信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分类名称 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>分类类型</t>
+  </si>
+  <si>
+    <t>1：菜品分类，2：套餐分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序字段</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用于分类数据的排序 </t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>1：启用，0：禁用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单表(存储C端用户的订单数据)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+  </si>
+  <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户id </t>
+  </si>
+  <si>
+    <t>1：待付款，2：待接单，3：已接单，4：派送中，5：已完成，6：已取消</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_book_id</t>
+  </si>
+  <si>
+    <t>地址id</t>
+  </si>
+  <si>
+    <t>order_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">checkout_time </t>
+  </si>
+  <si>
+    <t>付款时间</t>
+  </si>
+  <si>
+    <t>pay_method</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>1：微信支付，2：支付宝支付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_status</t>
+  </si>
+  <si>
+    <t>支付状态</t>
+  </si>
+  <si>
+    <t>0：未支付，1：已支付，2：退款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> decimal(10,2) </t>
+  </si>
+  <si>
+    <t>订单金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> remark</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>备注信息</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>详细地址信息</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>用户姓名</t>
+  </si>
+  <si>
+    <t>consignee</t>
+  </si>
+  <si>
+    <t>consignee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人</t>
+  </si>
+  <si>
+    <t>cancel_reason</t>
+  </si>
+  <si>
+    <t>订单取消原因</t>
+  </si>
+  <si>
+    <t>rejection_reason</t>
+  </si>
+  <si>
+    <t>拒单原因</t>
+  </si>
+  <si>
+    <t>cancel_time</t>
+  </si>
+  <si>
+    <t>订单取消时间</t>
+  </si>
+  <si>
+    <t>estimated_delivery_time</t>
+  </si>
+  <si>
+    <t>预计送达时间</t>
+  </si>
+  <si>
+    <t>delivery_status</t>
   </si>
   <si>
     <t>tinyint(1)</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>1：正常，2：禁用，-1：删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>real_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>backer_tab</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>联合索引</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>backer_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_username</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录账号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_password</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录密码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(64)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>backer_status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送状态</t>
+  </si>
+  <si>
+    <t>1：立即送出 ，0：选择具体时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_time</t>
+  </si>
+  <si>
+    <t>送达时间</t>
+  </si>
+  <si>
+    <t>pack_amount</t>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">打包费 </t>
+  </si>
+  <si>
+    <t>tableware_number</t>
+  </si>
+  <si>
+    <t>餐具数量</t>
+  </si>
+  <si>
+    <t>tableware_status</t>
+  </si>
+  <si>
+    <t>餐具数量状态</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单明细表(存储C端用户的订单明细数据)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>商品图片路径</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>订单id</t>
+  </si>
+  <si>
+    <t>setmeal_id</t>
+  </si>
+  <si>
+    <t>dish_flavor</t>
+  </si>
+  <si>
+    <t>菜品口味</t>
+  </si>
+  <si>
+    <t>商品数量</t>
+  </si>
+  <si>
+    <t>商品单价</t>
+  </si>
+  <si>
+    <t>shopping_cart表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车表(存储C端用户的购物车信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：按餐量提供 ，0：选择具体数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_book</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址表(存储C端用户的收货地址信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>province_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(12)</t>
+  </si>
+  <si>
+    <t>省份编码</t>
+  </si>
+  <si>
+    <t>province_name</t>
+  </si>
+  <si>
+    <t>省份名称</t>
+  </si>
+  <si>
+    <t>city_code</t>
+  </si>
+  <si>
+    <t>城市编码</t>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+  </si>
+  <si>
+    <t>city_name</t>
+  </si>
+  <si>
+    <t>城市名称</t>
+  </si>
+  <si>
+    <t>district_code</t>
+  </si>
+  <si>
+    <t>区县编码</t>
+  </si>
+  <si>
+    <t>district_name</t>
+  </si>
+  <si>
+    <t>区县名称</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>具体到门牌号</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>公司、家、学校</t>
+  </si>
+  <si>
+    <t>is_default</t>
+  </si>
+  <si>
+    <t>是否默认地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1：是，0：否    </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_log</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问记录表(用于监控接口访问)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>记录的url</t>
+  </si>
+  <si>
+    <t>port_check</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：后端，2：前端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>ip地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>exception_detected</t>
+  </si>
+  <si>
+    <t>访问方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>args</t>
+  </si>
+  <si>
+    <t>传入参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +1211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,15 +1227,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,10 +1250,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,36 +1538,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -626,13 +1583,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>5</v>
@@ -646,13 +1603,13 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -666,148 +1623,168 @@
         <v>8</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>8</v>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>8</v>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="J9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7"/>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12"/>
@@ -821,174 +1798,314 @@
       <c r="J12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
+      <c r="B19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -1075,12 +2192,3034 @@
       <c r="K33"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:K13"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:K46"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:K23"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="79.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+    </row>
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K52" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" customWidth="1"/>
+    <col min="6" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:K2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/数据库/waimaiSystem@数据库设计@V1.0.0.xlsx
+++ b/document/数据库/waimaiSystem@数据库设计@V1.0.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-108" windowWidth="28800" windowHeight="12588" tabRatio="907" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-108" windowWidth="28800" windowHeight="12588" tabRatio="907" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用端" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="359">
   <si>
     <t>字段名</t>
   </si>
@@ -60,6 +60,485 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>bigint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(18)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish_flavor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>口味数据list</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmeal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐表(存储套餐的信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：启用， 0：禁用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐菜品关系表(存储套餐和菜品的关联关系)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmeal_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类表(存储商品的分类信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">分类名称 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：菜品分类，2：套餐分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：启用，0：禁用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：待付款，2：待接单，3：已接单，4：派送中，5：已完成，6：已取消</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>1：微信支付，2：支付宝支付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> decimal(10,2) </t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>consignee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车表(存储C端用户的购物车信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_book</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址表(存储C端用户的收货地址信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(12)</t>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问记录表(用于监控接口访问)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：后端，2：前端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>ip地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>访问方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户姓名 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(18)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户头像路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表(存储C端用户的信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户的唯一标识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手机号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户身份证号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>user</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -68,23 +547,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>bigint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>主键</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>openid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户的唯一标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
+    <t>员工姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工手机号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -92,15 +587,695 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>员工身份证号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工账号状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工账号创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">员工账号最后修改时间 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工账号创建人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工账号最后修改人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工表(存储商家内部的员工信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工用户名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品分类id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：起售， 0：停售</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">菜品最后修改时间 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品创建人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品最后修改人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品表(存储菜品的信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>口味名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品口味表(存储菜品的口味信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品分类id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：起售， 0：停售</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">菜品最后修改时间 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品创建人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品最后修改人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>菜品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品单价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>copies</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品份数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmeal_dish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用于分类数据的排序 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品创建人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品最后修改人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户id </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_book_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">checkout_time </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未支付，1：已支付，2：退款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> remark</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel_reason</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单取消原因</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejection_reason</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒单原因</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单取消时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimated_delivery_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计送达时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：立即送出 ，0：选择具体时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>送达时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack_amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">打包费 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableware_number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐具数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableware_status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐具数量状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：按餐量提供 ，0：选择具体数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单表(存储C端用户的订单数据)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(32)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">用户姓名 </t>
+    <t>image</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图片路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmeal_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish_flavor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品口味</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品单价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单明细表(存储C端用户的订单明细数据)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图片路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish_flavor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品口味</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmeal_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_cart表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>consignee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -108,999 +1283,155 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>用户手机号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户身份证号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(18)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(500)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户头像路径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工表(存储商家内部的员工信息)</t>
+    <t>province_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>province_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>district_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>district_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体到门牌号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司、家、学校</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_default</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否默认地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1：是，0：否    </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录的url</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>port_check</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception_detected</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>args</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_log</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-  </si>
-  <si>
-    <t>员工姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工用户名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(64)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工密码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工手机号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工身份证号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(18)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-  </si>
-  <si>
-    <t>员工账号状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工账号创建时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">员工账号最后修改时间 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-  </si>
-  <si>
-    <t>员工账号创建人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工账号最后修改人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dish</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品表(存储菜品的信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表(存储C端用户的信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品名称</t>
-  </si>
-  <si>
-    <t>菜品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑外键</t>
-  </si>
-  <si>
-    <t>逻辑外键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(10,2)</t>
-  </si>
-  <si>
-    <t>decimal(10,2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片路径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖状态</t>
-  </si>
-  <si>
-    <t>1：起售， 0：停售</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品创建时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">菜品最后修改时间 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品创建人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品最后修改人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dish_flavor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dish_id</t>
-  </si>
-  <si>
-    <t>dish_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品id</t>
-  </si>
-  <si>
-    <t>菜品id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑外键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>口味名称</t>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品口味表(存储菜品的口味信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>口味数据list</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>setmeal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐表(存储套餐的信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品分类id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品分类id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：启用， 0：禁用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>setmeal_dish</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐菜品关系表(存储套餐和菜品的关联关系)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>setmeal_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐id</t>
-  </si>
-  <si>
-    <t>冗余字段</t>
-  </si>
-  <si>
-    <t>菜品单价</t>
-  </si>
-  <si>
-    <t>copies</t>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品份数</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类表(存储商品的分类信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">分类名称 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>分类类型</t>
-  </si>
-  <si>
-    <t>1：菜品分类，2：套餐分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序字段</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用于分类数据的排序 </t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>1：启用，0：禁用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>orders</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单表(存储C端用户的订单数据)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号</t>
-  </si>
-  <si>
-    <t>订单状态</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用户id </t>
-  </si>
-  <si>
-    <t>1：待付款，2：待接单，3：已接单，4：派送中，5：已完成，6：已取消</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>address_book_id</t>
-  </si>
-  <si>
-    <t>地址id</t>
-  </si>
-  <si>
-    <t>order_time</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>下单时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">checkout_time </t>
-  </si>
-  <si>
-    <t>付款时间</t>
-  </si>
-  <si>
-    <t>pay_method</t>
-  </si>
-  <si>
-    <t>支付方式</t>
-  </si>
-  <si>
-    <t>1：微信支付，2：支付宝支付</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_status</t>
-  </si>
-  <si>
-    <t>支付状态</t>
-  </si>
-  <si>
-    <t>0：未支付，1：已支付，2：退款</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> decimal(10,2) </t>
-  </si>
-  <si>
-    <t>订单金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> remark</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>备注信息</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>详细地址信息</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>用户姓名</t>
-  </si>
-  <si>
-    <t>consignee</t>
-  </si>
-  <si>
-    <t>consignee</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货人</t>
-  </si>
-  <si>
-    <t>cancel_reason</t>
-  </si>
-  <si>
-    <t>订单取消原因</t>
-  </si>
-  <si>
-    <t>rejection_reason</t>
-  </si>
-  <si>
-    <t>拒单原因</t>
-  </si>
-  <si>
-    <t>cancel_time</t>
-  </si>
-  <si>
-    <t>订单取消时间</t>
-  </si>
-  <si>
-    <t>estimated_delivery_time</t>
-  </si>
-  <si>
-    <t>预计送达时间</t>
-  </si>
-  <si>
-    <t>delivery_status</t>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送状态</t>
-  </si>
-  <si>
-    <t>1：立即送出 ，0：选择具体时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery_time</t>
-  </si>
-  <si>
-    <t>送达时间</t>
-  </si>
-  <si>
-    <t>pack_amount</t>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">打包费 </t>
-  </si>
-  <si>
-    <t>tableware_number</t>
-  </si>
-  <si>
-    <t>餐具数量</t>
-  </si>
-  <si>
-    <t>tableware_status</t>
-  </si>
-  <si>
-    <t>餐具数量状态</t>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_detail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单明细表(存储C端用户的订单明细数据)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>商品图片路径</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>订单id</t>
-  </si>
-  <si>
-    <t>setmeal_id</t>
-  </si>
-  <si>
-    <t>dish_flavor</t>
-  </si>
-  <si>
-    <t>菜品口味</t>
-  </si>
-  <si>
-    <t>商品数量</t>
-  </si>
-  <si>
-    <t>商品单价</t>
-  </si>
-  <si>
-    <t>shopping_cart表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车表(存储C端用户的购物车信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：按餐量提供 ，0：选择具体数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>address_book</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址表(存储C端用户的收货地址信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>varchar(2)</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>province_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> varchar(12)</t>
-  </si>
-  <si>
-    <t>省份编码</t>
-  </si>
-  <si>
-    <t>province_name</t>
-  </si>
-  <si>
-    <t>省份名称</t>
-  </si>
-  <si>
-    <t>city_code</t>
-  </si>
-  <si>
-    <t>城市编码</t>
-  </si>
-  <si>
-    <t>varchar(12)</t>
-  </si>
-  <si>
-    <t>city_name</t>
-  </si>
-  <si>
-    <t>城市名称</t>
-  </si>
-  <si>
-    <t>district_code</t>
-  </si>
-  <si>
-    <t>区县编码</t>
-  </si>
-  <si>
-    <t>district_name</t>
-  </si>
-  <si>
-    <t>区县名称</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>具体到门牌号</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>公司、家、学校</t>
-  </si>
-  <si>
-    <t>is_default</t>
-  </si>
-  <si>
-    <t>是否默认地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1：是，0：否    </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation_log</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问记录表(用于监控接口访问)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>记录的url</t>
-  </si>
-  <si>
-    <t>port_check</t>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：后端，2：前端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-  </si>
-  <si>
-    <t>ip地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>exception_detected</t>
-  </si>
-  <si>
-    <t>访问方法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>args</t>
-  </si>
-  <si>
-    <t>传入参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作时间</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1539,7 +1870,7 @@
   <dimension ref="A2:K33"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1555,11 +1886,11 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -1603,13 +1934,13 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -1624,165 +1955,165 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K11" s="4"/>
     </row>
@@ -1800,11 +2131,11 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1848,13 +2179,13 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
@@ -1869,21 +2200,21 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="4" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1894,38 +2225,40 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="4" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1936,16 +2269,16 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1956,16 +2289,16 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1976,16 +2309,16 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1996,16 +2329,16 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2015,95 +2348,95 @@
         <v>1</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="4"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K26" s="4"/>
     </row>
@@ -2208,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2225,11 +2558,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -2273,13 +2606,13 @@
     </row>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -2294,18 +2627,18 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -2314,22 +2647,22 @@
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="4" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>8</v>
@@ -2340,87 +2673,87 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2430,104 +2763,104 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -2571,13 +2904,13 @@
     </row>
     <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
@@ -2592,18 +2925,18 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="4" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
@@ -2614,60 +2947,60 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="4" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="16" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -2711,13 +3044,13 @@
     </row>
     <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
@@ -2732,18 +3065,18 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>8</v>
@@ -2752,22 +3085,22 @@
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
       <c r="I26" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="4" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>8</v>
@@ -2778,21 +3111,21 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="4" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2803,60 +3136,60 @@
     </row>
     <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2866,104 +3199,104 @@
         <v>1</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K35" s="4"/>
     </row>
     <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="16" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -3007,13 +3340,13 @@
     </row>
     <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
@@ -3028,134 +3361,134 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="4"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="4"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="4"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="K44" s="4"/>
     </row>
     <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="16" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -3199,13 +3532,13 @@
     </row>
     <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -3220,69 +3553,69 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
+      <c r="B49" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="K49" s="4" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>150</v>
+      <c r="B50" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="I50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="3"/>
       <c r="K50" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="13" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>146</v>
+        <v>220</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -3292,118 +3625,118 @@
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>147</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="9"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K53" s="4"/>
     </row>
     <row r="54" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="K54" s="4"/>
     </row>
     <row r="55" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="4"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K55" s="4"/>
     </row>
     <row r="56" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="4"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K56" s="4"/>
     </row>
@@ -3422,6 +3755,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3429,8 +3763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3446,11 +3780,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -3494,13 +3828,13 @@
     </row>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -3515,43 +3849,43 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3561,18 +3895,18 @@
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>8</v>
@@ -3583,18 +3917,18 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>8</v>
@@ -3605,18 +3939,18 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="9" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -3630,35 +3964,35 @@
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -3671,18 +4005,18 @@
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -3695,18 +4029,18 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>179</v>
+        <v>247</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -3720,211 +4054,211 @@
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>183</v>
+        <v>250</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>238</v>
+        <v>85</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>241</v>
+        <v>88</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
@@ -3937,84 +4271,84 @@
         <v>1</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>243</v>
+        <v>90</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -4027,16 +4361,16 @@
         <v>1</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -4080,13 +4414,13 @@
     </row>
     <row r="31" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
@@ -4101,65 +4435,65 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="4" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>219</v>
+        <v>282</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>236</v>
+        <v>83</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4167,88 +4501,88 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
-        <v>80</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>105</v>
+        <v>287</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>80</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="4"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -4264,13 +4598,13 @@
     </row>
     <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
@@ -4284,11 +4618,11 @@
     </row>
     <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="16" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
@@ -4332,13 +4666,13 @@
     </row>
     <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
@@ -4353,62 +4687,62 @@
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="4" t="s">
-        <v>154</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>43</v>
+        <v>298</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="4"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="4"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>8</v>
@@ -4419,88 +4753,88 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="4" t="s">
-        <v>80</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>107</v>
+        <v>304</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>224</v>
+        <v>305</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>8</v>
@@ -4516,13 +4850,13 @@
     </row>
     <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>8</v>
@@ -4536,23 +4870,23 @@
     </row>
     <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>233</v>
+        <v>310</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K52" s="4"/>
     </row>
@@ -4576,7 +4910,7 @@
   <dimension ref="B2:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4593,11 +4927,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -4641,13 +4975,13 @@
     </row>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -4661,17 +4995,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -4682,62 +5018,62 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="4" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>183</v>
+        <v>320</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>8</v>
@@ -4751,193 +5087,193 @@
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>237</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>262</v>
+        <v>327</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>263</v>
+        <v>328</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>264</v>
+        <v>329</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>280</v>
+        <v>104</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>272</v>
+        <v>336</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>273</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>274</v>
+        <v>338</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -4950,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4967,8 +5303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4976,15 +5312,16 @@
     <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
-        <v>282</v>
+        <v>105</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -4994,7 +5331,7 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="2:11" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5028,13 +5365,13 @@
     </row>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -5048,17 +5385,19 @@
         <v>8</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -5072,13 +5411,13 @@
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>8</v>
@@ -5092,13 +5431,13 @@
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>290</v>
+        <v>109</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>8</v>
@@ -5112,13 +5451,13 @@
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>294</v>
+        <v>111</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>8</v>
@@ -5132,57 +5471,57 @@
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>293</v>
+        <v>349</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>296</v>
+        <v>113</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>352</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>301</v>
+        <v>353</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -5196,13 +5535,13 @@
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>

--- a/document/数据库/waimaiSystem@数据库设计@V1.0.0.xlsx
+++ b/document/数据库/waimaiSystem@数据库设计@V1.0.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-108" windowWidth="28800" windowHeight="12588" tabRatio="907" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-108" windowWidth="28800" windowHeight="12588" tabRatio="907" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="使用端" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="358">
   <si>
     <t>字段名</t>
   </si>
@@ -178,6 +178,495 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐表(存储套餐的信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：启用， 0：禁用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐菜品关系表(存储套餐和菜品的关联关系)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmeal_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类表(存储商品的分类信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：菜品分类，2：套餐分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：启用，0：禁用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：待付款，2：待接单，3：已接单，4：派送中，5：已完成，6：已取消</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>1：微信支付，2：支付宝支付</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> decimal(10,2) </t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车表(存储C端用户的购物车信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> varchar(12)</t>
+  </si>
+  <si>
+    <t>varchar(12)</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问记录表(用于监控接口访问)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：后端，2：前端</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>ip地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>访问方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用户姓名 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(18)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户头像路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表(存储C端用户的信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>avatar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户的唯一标识</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户手机号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户身份证号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工手机号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工身份证号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工账号状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工账号创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">员工账号最后修改时间 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工表(存储商家内部的员工信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工用户名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品分类id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：起售， 0：停售</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">菜品最后修改时间 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品创建人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品最后修改人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品表(存储菜品的信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>口味名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品口味表(存储菜品的口味信息)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>dish_id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -186,11 +675,443 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>冗余字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品单价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>copies</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品份数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>setmeal_dish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用于分类数据的排序 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下单时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：未支付，1：已支付，2：退款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单金额</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel_reason</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejection_reason</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒单原因</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单取消时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack_amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">打包费 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐具数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableware_status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐具数量状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单表(存储C端用户的订单数据)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图片路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单明细表(存储C端用户的订单明细数据)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品口味</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>consignee</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>district_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司、家、学校</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_default</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否默认地址</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1：是，0：否    </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录的url</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>port_check</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception_detected</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>args</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_log</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工账号创建人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工账号最后修改人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品价格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish_flavor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>口味数据list</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
+    <t>value</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -198,39 +1119,47 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>套餐表(存储套餐的信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：启用， 0：禁用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐菜品关系表(存储套餐和菜品的关联关系)</t>
+    <t>套餐名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">菜品最后修改时间 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品最后修改人id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套餐id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -238,11 +1167,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
+    <t>菜品id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -250,7 +1175,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>分类表(存储商品的分类信息)</t>
+    <t>type</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -258,23 +1183,43 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1：菜品分类，2：套餐分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：启用，0：禁用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>orders</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
+    <t>1：起售， 0：停售</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序字段</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_user</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品最后修改人id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -282,106 +1227,155 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：待付款，2：待接单，3：已接单，4：派送中，5：已完成，6：已取消</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>1：微信支付，2：支付宝支付</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> decimal(10,2) </t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
+    <t xml:space="preserve">用户id </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_book_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">checkout_time </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>consignee</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车表(存储C端用户的购物车信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
+    <t>订单取消原因</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计送达时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimated_delivery_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_status</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：立即送出 ，0：选择具体时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>送达时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_time</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableware_number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：按餐量提供 ，0：选择具体数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dish_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜品口味</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品单价</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_cart表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品图片路径</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -393,621 +1387,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> varchar(12)</t>
-  </si>
-  <si>
-    <t>varchar(12)</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问记录表(用于监控接口访问)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：后端，2：前端</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-  </si>
-  <si>
-    <t>ip地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>访问方法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(45)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">用户姓名 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(18)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户头像路径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户表(存储C端用户的信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>avatar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>openid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信用户的唯一标识</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户手机号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户身份证号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工密码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工手机号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工身份证号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工账号状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工账号创建时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">员工账号最后修改时间 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工账号创建人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工账号最后修改人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工表(存储商家内部的员工信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工用户名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>employee</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品分类id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品价格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片路径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：起售， 0：停售</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品创建时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">菜品最后修改时间 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品创建人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品最后修改人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品表(存储菜品的信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dish</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑外键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>口味名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品口味表(存储菜品的口味信息)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品分类id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：起售， 0：停售</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">菜品最后修改时间 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品创建人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_user</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品最后修改人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑外键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dish_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑外键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冗余字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品单价</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冗余字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>copies</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品份数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>setmeal_dish</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序字段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">用于分类数据的排序 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品创建人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品最后修改人id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>user_id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">用户id </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>address_book_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下单时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">checkout_time </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：未支付，1：已支付，2：退款</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> remark</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
+    <t>省份编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>province_code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>province_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>city_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县编码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>district_name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1015,423 +1423,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>user_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel_reason</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单取消原因</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>rejection_reason</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拒单原因</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单取消时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>estimated_delivery_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计送达时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery_status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：立即送出 ，0：选择具体时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>送达时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pack_amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">打包费 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableware_number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐具数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableware_status</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐具数量状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：按餐量提供 ，0：选择具体数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单表(存储C端用户的订单数据)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品图片路径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑外键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dish_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>setmeal_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dish_flavor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品口味</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品单价</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单明细表(存储C端用户的订单明细数据)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_detail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品图片路径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑外键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dish_flavor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜品口味</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>setmeal_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套餐id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>shopping_cart表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>consignee</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>province_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>province_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>city_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>district_code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>区县编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>district_name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>区县名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
+    <t>label</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>具体到门牌号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>label</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司、家、学校</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_default</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否默认地址</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1：是，0：否    </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录的url</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>port_check</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>exception_detected</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>args</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>传入参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>operation_log</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1869,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1886,11 +1882,11 @@
   <sheetData>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -1934,13 +1930,13 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>252</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -1955,18 +1951,18 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>19</v>
@@ -1985,10 +1981,10 @@
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>14</v>
@@ -2008,10 +2004,10 @@
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>127</v>
+        <v>255</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>15</v>
@@ -2031,10 +2027,10 @@
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>16</v>
@@ -2053,13 +2049,13 @@
     </row>
     <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
@@ -2075,10 +2071,10 @@
     </row>
     <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -2097,10 +2093,10 @@
     </row>
     <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
@@ -2131,11 +2127,11 @@
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -2179,10 +2175,10 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>11</v>
@@ -2200,15 +2196,15 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="4" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
@@ -2225,10 +2221,10 @@
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>14</v>
@@ -2240,19 +2236,19 @@
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
       <c r="I17" s="3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>25</v>
@@ -2269,10 +2265,10 @@
     </row>
     <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>15</v>
@@ -2289,10 +2285,10 @@
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>16</v>
@@ -2309,10 +2305,10 @@
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>26</v>
@@ -2329,10 +2325,10 @@
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>36</v>
@@ -2348,15 +2344,15 @@
         <v>1</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>18</v>
@@ -2376,10 +2372,10 @@
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>18</v>
@@ -2398,10 +2394,10 @@
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
@@ -2420,10 +2416,10 @@
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>11</v>
@@ -2541,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2558,11 +2554,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -2606,13 +2602,13 @@
     </row>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -2627,15 +2623,15 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
@@ -2651,15 +2647,15 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="4" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>11</v>
@@ -2673,15 +2669,15 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>33</v>
@@ -2700,10 +2696,10 @@
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>35</v>
@@ -2722,10 +2718,10 @@
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>172</v>
+        <v>271</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>35</v>
@@ -2744,16 +2740,16 @@
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2763,15 +2759,15 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
@@ -2790,13 +2786,13 @@
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>37</v>
@@ -2812,16 +2808,16 @@
     </row>
     <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2834,16 +2830,16 @@
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2856,11 +2852,11 @@
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -2904,10 +2900,10 @@
     </row>
     <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
@@ -2925,15 +2921,15 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="4" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
@@ -2947,21 +2943,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="4" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -2974,10 +2970,10 @@
     </row>
     <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>34</v>
@@ -2996,11 +2992,11 @@
     </row>
     <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -3044,10 +3040,10 @@
     </row>
     <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
@@ -3065,15 +3061,15 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>192</v>
+        <v>280</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>14</v>
@@ -3089,15 +3085,15 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="4" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>11</v>
@@ -3111,21 +3107,21 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3136,10 +3132,10 @@
     </row>
     <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>35</v>
@@ -3158,10 +3154,10 @@
     </row>
     <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>35</v>
@@ -3180,16 +3176,16 @@
     </row>
     <row r="31" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3199,21 +3195,21 @@
         <v>1</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -3226,10 +3222,10 @@
     </row>
     <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>18</v>
@@ -3248,10 +3244,10 @@
     </row>
     <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>11</v>
@@ -3270,10 +3266,10 @@
     </row>
     <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>11</v>
@@ -3292,11 +3288,11 @@
     </row>
     <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -3340,10 +3336,10 @@
     </row>
     <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>11</v>
@@ -3361,21 +3357,21 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>56</v>
+        <v>291</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>204</v>
+        <v>290</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -3385,15 +3381,15 @@
         <v>38</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>28</v>
@@ -3409,15 +3405,15 @@
         <v>38</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>24</v>
@@ -3433,15 +3429,15 @@
         <v>38</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>32</v>
@@ -3457,18 +3453,18 @@
         <v>39</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>216</v>
+        <v>173</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>40</v>
@@ -3484,11 +3480,11 @@
     </row>
     <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>59</v>
+        <v>293</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -3532,10 +3528,10 @@
     </row>
     <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
@@ -3553,15 +3549,15 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>27</v>
@@ -3577,15 +3573,15 @@
         <v>38</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>61</v>
+        <v>295</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>14</v>
@@ -3601,21 +3597,21 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="4" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="13" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -3625,15 +3621,15 @@
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>27</v>
@@ -3649,15 +3645,15 @@
         <v>39</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>18</v>
@@ -3676,16 +3672,16 @@
     </row>
     <row r="54" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -3698,10 +3694,10 @@
     </row>
     <row r="55" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>11</v>
@@ -3720,16 +3716,16 @@
     </row>
     <row r="56" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>226</v>
+        <v>305</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -3763,8 +3759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:C41"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3780,11 +3776,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
-        <v>278</v>
+        <v>207</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -3828,10 +3824,10 @@
     </row>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -3849,43 +3845,43 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3895,15 +3891,15 @@
         <v>1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>28</v>
@@ -3917,15 +3913,15 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>28</v>
@@ -3939,18 +3935,18 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="9" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -3964,35 +3960,35 @@
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -4005,15 +4001,15 @@
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -4029,18 +4025,18 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -4054,208 +4050,208 @@
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>250</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>252</v>
+        <v>317</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>254</v>
+        <v>319</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="4"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>76</v>
+        <v>320</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="4"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="4"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="4"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>27</v>
@@ -4271,84 +4267,84 @@
         <v>1</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>268</v>
+        <v>327</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
@@ -4361,16 +4357,16 @@
         <v>1</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="16" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -4414,10 +4410,10 @@
     </row>
     <row r="31" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>11</v>
@@ -4435,65 +4431,65 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>279</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>283</v>
+        <v>210</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4501,88 +4497,88 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>288</v>
+        <v>53</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="4"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K37" s="4"/>
     </row>
     <row r="38" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>291</v>
+        <v>62</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>293</v>
+        <v>214</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>8</v>
@@ -4598,10 +4594,10 @@
     </row>
     <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>32</v>
@@ -4618,11 +4614,11 @@
     </row>
     <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
@@ -4666,10 +4662,10 @@
     </row>
     <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>11</v>
@@ -4687,59 +4683,59 @@
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="4" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>298</v>
+        <v>117</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="4"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
-        <v>300</v>
+        <v>148</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="4"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>28</v>
@@ -4753,88 +4749,88 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="4" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B47" s="9" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>311</v>
+        <v>53</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>312</v>
+        <v>165</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>8</v>
@@ -4850,10 +4846,10 @@
     </row>
     <row r="51" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>32</v>
@@ -4870,23 +4866,23 @@
     </row>
     <row r="52" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K52" s="4"/>
     </row>
@@ -4909,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4927,11 +4923,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>95</v>
+        <v>345</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -4975,10 +4971,10 @@
     </row>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -4996,15 +4992,15 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>232</v>
+        <v>347</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -5018,62 +5014,62 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="4" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>318</v>
+        <v>120</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>8</v>
@@ -5087,193 +5083,193 @@
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="4"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>329</v>
+        <v>228</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>253</v>
+        <v>355</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>336</v>
+        <v>231</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="4"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>337</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>338</v>
+        <v>233</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
@@ -5286,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>340</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5317,11 +5313,11 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
-        <v>356</v>
+        <v>251</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -5365,10 +5361,10 @@
     </row>
     <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>341</v>
+        <v>236</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>342</v>
+        <v>237</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -5386,18 +5382,18 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4" t="s">
-        <v>343</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>344</v>
+        <v>239</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>345</v>
+        <v>240</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -5411,13 +5407,13 @@
     </row>
     <row r="6" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>346</v>
+        <v>241</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>8</v>
@@ -5431,13 +5427,13 @@
     </row>
     <row r="7" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>347</v>
+        <v>242</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>8</v>
@@ -5451,13 +5447,13 @@
     </row>
     <row r="8" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>8</v>
@@ -5471,13 +5467,13 @@
     </row>
     <row r="9" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>349</v>
+        <v>244</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>19</v>
@@ -5487,19 +5483,19 @@
       <c r="H9" s="4"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>350</v>
+        <v>245</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>351</v>
+        <v>246</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>19</v>
@@ -5509,16 +5505,16 @@
       <c r="H10" s="4"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>353</v>
+        <v>248</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
@@ -5535,10 +5531,10 @@
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>354</v>
+        <v>249</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>18</v>
